--- a/Electrical/Documents/electrical-bom.xlsx
+++ b/Electrical/Documents/electrical-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanl\Documents\01_UBC\Academics\Year 4\NVD\MPACT\MPACT\Electrical\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C6E4FC-A397-45F6-BDDB-6672EB1E7B99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C4F84F-E0C8-40CA-82A4-77EB008B779C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3984" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3984" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="-12276" yWindow="-14676" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{1B1AF0A3-1CED-413B-A237-76594464FF4D}"/>
   </bookViews>
   <sheets>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="58">
   <si>
     <t>Qty</t>
   </si>
@@ -225,15 +225,22 @@
     <t>Qty (Subtotal)</t>
   </si>
   <si>
-    <t>Design Qty</t>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Percent of Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -479,14 +486,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -494,9 +502,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="4" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
@@ -520,13 +528,19 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+  <cellStyles count="6">
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -804,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1614FF-0D82-4274-AE6D-8A88C4357C4B}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="I3" sqref="I3"/>
@@ -820,10 +834,11 @@
     <col min="3" max="3" width="7.44140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" style="6" customWidth="1"/>
     <col min="5" max="6" width="10.33203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -842,15 +857,21 @@
       <c r="F1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="str" cm="1">
         <f t="array" ref="A2:A17">_xlfn.UNIQUE('Component List'!A2:A1144, FALSE, FALSE)</f>
         <v>VAPCELL K30 18650 15A/30A FLAT TOP 3000MAH BATTERY</v>
@@ -863,26 +884,34 @@
         <v>1</v>
       </c>
       <c r="D2" s="8">
-        <f>C2*$H$2</f>
-        <v>25</v>
+        <f>C2*$I$2</f>
+        <v>1</v>
       </c>
       <c r="E2" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D2,'Component List'!C2:D7,2,TRUE),'Component List'!D:D,0),2)=B2,VLOOKUP(D2,'Component List'!C2:D7,2, TRUE),"Error")</f>
-        <v>2.93</v>
+        <f>VLOOKUP(D2,'Component List'!C2:D7,2, TRUE)</f>
+        <v>3.29</v>
       </c>
       <c r="F2" s="9">
         <f>D2*E2</f>
-        <v>73.25</v>
-      </c>
-      <c r="H2" s="7">
-        <v>25</v>
-      </c>
-      <c r="I2" s="9">
+        <v>3.29</v>
+      </c>
+      <c r="G2" s="32">
+        <f>F2/SUM(F:F)</f>
+        <v>0.15701559020044548</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <f>K2/I2</f>
+        <v>20.95333333333333</v>
+      </c>
+      <c r="K2" s="9">
         <f>SUM(F:F)</f>
-        <v>645.69499999999982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20.95333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="str">
         <v>UEETEK 3 PCS 5015 DC 24V 0.18A Fan for 3D Printer,Turbine Blower Radiator Fan,Excellent for Cooling Heat Sink on Hot End, 3D Printer Accessory,Black</v>
       </c>
@@ -894,19 +923,23 @@
         <v>1</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D16" si="0">C3*$H$2</f>
-        <v>25</v>
+        <f t="shared" ref="D3:D16" si="0">C3*$I$2</f>
+        <v>1</v>
       </c>
       <c r="E3" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D3,'Component List'!C8:D8,2,TRUE),'Component List'!D:D,0),2)=B3,VLOOKUP(D3,'Component List'!C8:D8,2, TRUE),"Error")</f>
-        <v>12.34</v>
+        <f>VLOOKUP(D3,'Component List'!C8:D8,2, TRUE)</f>
+        <v>4.1133333333333333</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F16" si="1">D3*E3</f>
-        <v>308.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F3:G16" si="1">D3*E3</f>
+        <v>4.1133333333333333</v>
+      </c>
+      <c r="G3" s="32">
+        <f t="shared" ref="G3:G16" si="2">F3/SUM(F:F)</f>
+        <v>0.19630925867006049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="str">
         <v>Step-up DC/DC converter for White LED Backlight</v>
       </c>
@@ -919,18 +952,22 @@
       </c>
       <c r="D4" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E4" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D4,'Component List'!C9:D16,2,TRUE),'Component List'!D:D,0),2)=B4,VLOOKUP(D4,'Component List'!C9:D16,2, TRUE),"Error")</f>
-        <v>1.7747999999999999</v>
+        <f>VLOOKUP(D4,'Component List'!C9:D16,2, TRUE)</f>
+        <v>2.09</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" si="1"/>
-        <v>44.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.09</v>
+      </c>
+      <c r="G4" s="32">
+        <f t="shared" si="2"/>
+        <v>9.9745466115176595E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <v>FIXED IND 10UH 500MA 300 MOHM</v>
       </c>
@@ -943,18 +980,22 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E5" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D5,'Component List'!C17:D30,2,TRUE),'Component List'!D:D,0),2)=B5,VLOOKUP(D5,'Component List'!C17:D30,2, TRUE),"Error")</f>
-        <v>0.18</v>
+        <f>VLOOKUP(D5,'Component List'!C17:D30,2, TRUE)</f>
+        <v>0.22</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.22</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="2"/>
+        <v>1.0499522748965958E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <v>CAP CER 1UF 25V X5R 0603</v>
       </c>
@@ -967,18 +1008,22 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E6" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D6,'Component List'!C31:D41,2,TRUE),'Component List'!D:D,0),2)=B6,VLOOKUP(D6,'Component List'!C31:D41,2, TRUE),"Error")</f>
-        <v>6.3200000000000006E-2</v>
+        <f>VLOOKUP(D6,'Component List'!C31:D41,2, TRUE)</f>
+        <v>0.15</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="2"/>
+        <v>2.147629653197582E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <v>RES 1K OHM 1% 1/10W 0603</v>
       </c>
@@ -991,18 +1036,22 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E7" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D7,'Component List'!C42:D50,2,TRUE),'Component List'!D:D,0),2)=B7,VLOOKUP(D7,'Component List'!C42:D50,2, TRUE),"Error")</f>
-        <v>2.1999999999999999E-2</v>
+        <f>VLOOKUP(D7,'Component List'!C42:D50,2, TRUE)</f>
+        <v>0.15</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.54999999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="2"/>
+        <v>7.1587655106586075E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <v>RES SMD 49.9K OHM 1% 1/10W 0603</v>
       </c>
@@ -1015,18 +1064,22 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E8" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D8,'Component List'!C51:D60,2,TRUE),'Component List'!D:D,0),2)=B8,VLOOKUP(D8,'Component List'!C51:D60,2, TRUE),"Error")</f>
-        <v>3.1E-2</v>
+        <f>VLOOKUP(D8,'Component List'!C51:D60,2, TRUE)</f>
+        <v>0.15</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="2"/>
+        <v>7.1587655106586075E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <v>IC BATT CNTL LI-ION 1CEL SOT23-5</v>
       </c>
@@ -1039,18 +1092,22 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E9" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D9,'Component List'!C60:D61,2,TRUE),'Component List'!D:D,0),2)=B9,VLOOKUP(D9,'Component List'!C60:D61,2, TRUE),"Error")</f>
+        <f>VLOOKUP(D9,'Component List'!C60:D61,2, TRUE)</f>
         <v>0.87</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.87</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="2"/>
+        <v>4.1520839961819926E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <v>USB JACK, C TYPE, POWER ONLY, 6</v>
       </c>
@@ -1063,18 +1120,22 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E10" s="9">
         <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D10,'Component List'!C62:D74,2,TRUE),'Component List'!D:D,0),2)=B10,VLOOKUP(D10,'Component List'!C62:D74,2, TRUE),"Error")</f>
-        <v>1.0795999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="1"/>
-        <v>26.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="G10" s="32">
+        <f t="shared" si="2"/>
+        <v>6.2042634425707933E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <v>PCBWay - 40x40mm Board (USD)</v>
       </c>
@@ -1087,18 +1148,22 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E11" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D11,'Component List'!C75:D113,2,TRUE),'Component List'!D:D,0),2)=B11,VLOOKUP(D11,'Component List'!C75:D113,2, TRUE),"Error")</f>
-        <v>1.56</v>
+        <f>IFERROR(VLOOKUP(D11,'Component List'!C75:D113,2, TRUE), 'Component List'!D75)</f>
+        <v>2.4</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.4</v>
+      </c>
+      <c r="G11" s="32">
+        <f t="shared" si="2"/>
+        <v>0.11454024817053772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <v>LED WHITE 4000K 80CRI 3030</v>
       </c>
@@ -1111,18 +1176,22 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E12" s="9">
         <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D12,'Component List'!C114:D124,2,TRUE),'Component List'!D:D,0),2)=B12,VLOOKUP(D12,'Component List'!C114:D124,2, TRUE),"Error")</f>
-        <v>0.307</v>
+        <v>0.39</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
-        <v>23.024999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.17</v>
+      </c>
+      <c r="G12" s="32">
+        <f t="shared" si="2"/>
+        <v>5.5838370983137139E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <v>SWITCH SLIDE 3P3T 500MA 125V</v>
       </c>
@@ -1135,18 +1204,22 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E13" s="9">
         <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D13,'Component List'!C125:D133,2,TRUE),'Component List'!D:D,0),2)=B13,VLOOKUP(D13,'Component List'!C125:D133,2, TRUE),"Error")</f>
-        <v>2.5087999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="1"/>
-        <v>62.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.84</v>
+      </c>
+      <c r="G13" s="32">
+        <f t="shared" si="2"/>
+        <v>0.13553929366846965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <v>RES SMD 73.2 OHM 1% 1W 2512</v>
       </c>
@@ -1159,18 +1232,22 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E14" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D14,'Component List'!C134:D141,2,TRUE),'Component List'!D:D,0),2)=B14,VLOOKUP(D14,'Component List'!C134:D141,2, TRUE),"Error")</f>
-        <v>0.35699999999999998</v>
+        <f>VLOOKUP(D14,'Component List'!C134:D141,2, TRUE)</f>
+        <v>0.43</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="1"/>
-        <v>8.9249999999999989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.43</v>
+      </c>
+      <c r="G14" s="32">
+        <f t="shared" si="2"/>
+        <v>2.0521794463888007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <v>RES SMD 45.3 OHM 1% 1W 2512</v>
       </c>
@@ -1183,18 +1260,22 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E15" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D15,'Component List'!C142:D146,2,TRUE),'Component List'!D:D,0),2)=B15,VLOOKUP(D15,'Component List'!C142:D146,2, TRUE),"Error")</f>
-        <v>0.53200000000000003</v>
+        <f>VLOOKUP(D15,'Component List'!C142:D146,2, TRUE)</f>
+        <v>0.74</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="1"/>
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.74</v>
+      </c>
+      <c r="G15" s="32">
+        <f t="shared" si="2"/>
+        <v>3.5316576519249132E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <v>RES SMD 17.8 OHM 1% 1W 2512</v>
       </c>
@@ -1207,15 +1288,19 @@
       </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E16" s="9">
-        <f>IF(INDEX('Component List'!A:E,MATCH(VLOOKUP(D16,'Component List'!C147:D151,2,TRUE),'Component List'!D:D,0),2)=B16,VLOOKUP(D16,'Component List'!C147:D151,2, TRUE),VLOOKUP(D16,'Component List'!C147:D151,2, TRUE))</f>
-        <v>0.53200000000000003</v>
+        <f>VLOOKUP(D16,'Component List'!C147:D151,2, TRUE)</f>
+        <v>0.74</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="1"/>
-        <v>13.3</v>
+        <v>0.74</v>
+      </c>
+      <c r="G16" s="32">
+        <f t="shared" si="2"/>
+        <v>3.5316576519249132E-2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1232,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="1">
       <selection activeCell="D54" sqref="D54"/>
@@ -1378,7 +1463,8 @@
         <v>1</v>
       </c>
       <c r="D8" s="10">
-        <v>12.34</v>
+        <f>12.34/3</f>
+        <v>4.1133333333333333</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>7</v>
